--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>ID</t>
   </si>
@@ -54,121 +54,52 @@
     <t>Id</t>
   </si>
   <si>
-    <t>测试引导</t>
-  </si>
-  <si>
-    <t>FirstLevelTrigger</t>
-  </si>
-  <si>
-    <t>引导使用锤子</t>
-  </si>
-  <si>
-    <t>ClickExplodeAreaTrigger</t>
-  </si>
-  <si>
-    <t>引导使用雨伞</t>
-  </si>
-  <si>
-    <t>UsePowerUmbrellaTrigger</t>
-  </si>
-  <si>
-    <t>引导使用小炸弹</t>
-  </si>
-  <si>
-    <t>UseHorizontalAndVerticalBombTrigger</t>
-  </si>
-  <si>
-    <t>引导使用大炸弹</t>
-  </si>
-  <si>
-    <t>UseBigBombTrigger</t>
-  </si>
-  <si>
-    <t>引导使用雨伞Item</t>
-  </si>
-  <si>
-    <t>UsePowerUmbrellaItemTrigger</t>
-  </si>
-  <si>
-    <t>引导使用剪刀</t>
-  </si>
-  <si>
-    <t>ClickCrossClearTrigger</t>
-  </si>
-  <si>
-    <t>引导使用FreeMove</t>
-  </si>
-  <si>
-    <t>ClickFreeMoveTrigger</t>
-  </si>
-  <si>
-    <t>引导进入换装界面(连衣裙)</t>
-  </si>
-  <si>
-    <t>GuideEnterDressPanelTrigger</t>
-  </si>
-  <si>
-    <t>关卡进入</t>
-  </si>
-  <si>
-    <t>GuideEnterLevelTrigger</t>
-  </si>
-  <si>
-    <t>引导进入换装界面(鞋子)</t>
-  </si>
-  <si>
-    <t>GuideEnterShoesPanelTrigger</t>
-  </si>
-  <si>
-    <t>GuideEnterLevel2Trigger</t>
-  </si>
-  <si>
-    <t>地图进入</t>
-  </si>
-  <si>
-    <t>GuideEnterMapTrigger</t>
-  </si>
-  <si>
-    <t>进入故事剧情</t>
-  </si>
-  <si>
-    <t>GuideMapStoryShowEnterTrigger</t>
-  </si>
-  <si>
-    <t>退出故事剧情</t>
-  </si>
-  <si>
-    <t>GuideMapStoryShowExitTrigger</t>
-  </si>
-  <si>
-    <t>进入故事剧情2</t>
-  </si>
-  <si>
-    <t>GuideMapStoryShowEnter2Trigger</t>
-  </si>
-  <si>
-    <t>退出故事剧情2</t>
-  </si>
-  <si>
-    <t>GuideMapStoryShowExit2Trigger</t>
-  </si>
-  <si>
-    <t>退出故事剧情3（进入衣服商城）</t>
-  </si>
-  <si>
-    <t>GuideMapStoryShowExit3Trigger</t>
-  </si>
-  <si>
-    <t>衣服商城点击裤子够买</t>
-  </si>
-  <si>
-    <t>GuideEnterClothesShopPantsTrigger</t>
-  </si>
-  <si>
-    <t>退出衣服商城</t>
-  </si>
-  <si>
-    <t>GuideExitClothesShopPanelTrigger</t>
+    <t>剧情引导1（讲武堂）</t>
+  </si>
+  <si>
+    <t>DialogTrigger1</t>
+  </si>
+  <si>
+    <t>门派起名</t>
+  </si>
+  <si>
+    <t>TakeNameTrigger</t>
+  </si>
+  <si>
+    <t>剧情引导2（建造屋舍）</t>
+  </si>
+  <si>
+    <t>DialogTrigger2</t>
+  </si>
+  <si>
+    <t>建造屋舍</t>
+  </si>
+  <si>
+    <t>BuildFacilityTrigger1</t>
+  </si>
+  <si>
+    <t>打开建造屋舍界面</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanelTrigger1</t>
+  </si>
+  <si>
+    <t>剧情引导3（招募弟子）</t>
+  </si>
+  <si>
+    <t>DialogTrigger3</t>
+  </si>
+  <si>
+    <t>点击进入讲武堂界面</t>
+  </si>
+  <si>
+    <t>ClickLobbyTrigger1</t>
+  </si>
+  <si>
+    <t>点击银牌招募令的招募弟子</t>
+  </si>
+  <si>
+    <t>LobbyPanelGetCharacterTrigger</t>
   </si>
   <si>
     <t>模块</t>
@@ -295,11 +226,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -328,6 +259,126 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -338,99 +389,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,36 +404,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -495,13 +426,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,19 +522,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,127 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,8 +756,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -843,6 +776,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,35 +815,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,11 +837,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,10 +857,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,133 +869,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1507,14 +1438,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1607,7 +1538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -1618,17 +1549,20 @@
         <v>12</v>
       </c>
       <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="20">
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="20">
@@ -1696,137 +1630,97 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:1">
       <c r="A13" s="20">
         <v>9</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="20">
         <v>10</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="20">
         <v>11</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="20">
         <v>12</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="20">
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="20">
         <v>14</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="20">
         <v>15</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="20">
         <v>16</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="20">
         <v>17</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="20">
         <v>18</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:3">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="20">
         <v>19</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:3">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="20">
         <v>20</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="20"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="20"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="20"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="20"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="20"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="20"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="20"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="20"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1852,56 +1746,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -1910,10 +1804,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -1927,10 +1821,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -1944,10 +1838,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -1961,10 +1855,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -1978,10 +1872,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -1991,29 +1885,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2021,29 +1915,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2055,10 +1949,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2077,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2099,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2121,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="11500"/>
+    <workbookView windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>ID</t>
   </si>
@@ -39,6 +39,9 @@
     <t>JumpTrigger</t>
   </si>
   <si>
+    <t>备注步骤</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -54,52 +57,274 @@
     <t>Id</t>
   </si>
   <si>
-    <t>剧情引导1（讲武堂）</t>
+    <t>剧情引导（讲武堂）</t>
   </si>
   <si>
     <t>DialogTrigger1</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>门派起名</t>
   </si>
   <si>
     <t>TakeNameTrigger</t>
   </si>
   <si>
-    <t>剧情引导2（建造屋舍）</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>剧情引导（建造屋舍）</t>
   </si>
   <si>
     <t>DialogTrigger2</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>建造屋舍</t>
   </si>
   <si>
     <t>BuildFacilityTrigger1</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>打开建造屋舍界面</t>
   </si>
   <si>
     <t>BuildFacilityPanelTrigger1</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>剧情引导3（招募弟子）</t>
   </si>
   <si>
     <t>DialogTrigger3</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>点击进入讲武堂界面</t>
   </si>
   <si>
     <t>ClickLobbyTrigger1</t>
   </si>
   <si>
-    <t>点击银牌招募令的招募弟子</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>点击银牌招募令招募弟子</t>
   </si>
   <si>
     <t>LobbyPanelGetCharacterTrigger</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>剧情引导（让弟子去执行任务）</t>
+  </si>
+  <si>
+    <t>DialogTrigger4</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>点击公告榜按钮</t>
+  </si>
+  <si>
+    <t>ClickTaskBtnTrigger</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>查看任务详情</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>派遣弟子执行任务</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>领取任务奖励</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>金牌招募令</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>点击金牌招募令招募弟子</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>选择弟子执行任务</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>剧情引导（建造伙房）</t>
+  </si>
+  <si>
+    <t>KitchenDialogTrigger</t>
+  </si>
+  <si>
+    <t>Aa</t>
+  </si>
+  <si>
+    <t>建造伙房</t>
+  </si>
+  <si>
+    <t>BuildFacility_KitchenTrigger</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>打开建造伙房界面</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanel_KitchenTrigger</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>出现工作气泡</t>
+  </si>
+  <si>
+    <t>Ad</t>
+  </si>
+  <si>
+    <t>派遣弟子工作</t>
+  </si>
+  <si>
+    <t>Ae</t>
+  </si>
+  <si>
+    <t>资源上限后建造仓库</t>
+  </si>
+  <si>
+    <t>WarehouseDialogTrigger</t>
+  </si>
+  <si>
+    <t>Af</t>
+  </si>
+  <si>
+    <t>建造仓库</t>
+  </si>
+  <si>
+    <t>BuildFacility_WarehouseTrigger</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>打开建造仓库界面</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanel_WarehouseTrigger</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>百草屋建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildBaicaohuTrigger</t>
+  </si>
+  <si>
+    <t>Ai</t>
+  </si>
+  <si>
+    <t>练功场建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildPracticeFieldTrigger</t>
+  </si>
+  <si>
+    <t>Aj</t>
+  </si>
+  <si>
+    <t>藏经阁建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildKungfuLibraryTrigger</t>
+  </si>
+  <si>
+    <t>Ak</t>
+  </si>
+  <si>
+    <t>锻造屋建造完后 文本说明</t>
+  </si>
+  <si>
+    <t>BuildForgehouseTrigger</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>伙房第一次升级 烹饪说明</t>
+  </si>
+  <si>
+    <t>FoodBuffTrigger</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>主城升级到3级 收集系统说明</t>
+  </si>
+  <si>
+    <t>CollectSystemTrigger</t>
+  </si>
+  <si>
+    <t>An</t>
   </si>
   <si>
     <t>模块</t>
@@ -1438,27 +1663,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="18" customWidth="1"/>
     <col min="3" max="3" width="35.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="35.375" customWidth="1"/>
-    <col min="6" max="6" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="6" width="7.91666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1477,50 +1701,56 @@
       <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>1</v>
@@ -1538,189 +1768,504 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="20">
         <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="20">
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="20">
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="20">
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="20">
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="20">
         <v>6</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="20">
         <v>7</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="20">
         <v>8</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="20">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="20">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="20">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="20">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="20">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="20">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="20">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="20">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="20">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="20">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="20">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="20"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="20"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="20"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="20"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="20"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="20"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="20"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="20"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="20"/>
+      <c r="B25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="20">
+        <v>22</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="20">
+        <v>23</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="20">
+        <v>24</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="20">
+        <v>25</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="20">
+        <v>26</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20">
+        <v>27</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="20">
+        <v>28</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="20">
+        <v>29</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="20">
+        <v>30</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="20">
+        <v>31</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="20">
+        <v>32</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20">
+        <v>33</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="20">
+        <v>34</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="20">
+        <v>35</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="20">
+        <v>36</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="20">
+        <v>37</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="20">
+        <v>38</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="20">
+        <v>39</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1746,56 +2291,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -1804,10 +2349,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -1821,10 +2366,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -1838,10 +2383,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -1855,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -1872,10 +2417,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -1885,29 +2430,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1915,29 +2460,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -1949,10 +2494,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -1971,10 +2516,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -1993,10 +2538,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2015,10 +2560,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>ID</t>
   </si>
@@ -123,7 +123,7 @@
     <t>点击银牌招募令招募弟子</t>
   </si>
   <si>
-    <t>LobbyPanelGetCharacterTrigger</t>
+    <t>LobbyPanelGetCharacterTrigger1</t>
   </si>
   <si>
     <t>I</t>
@@ -141,7 +141,7 @@
     <t>点击公告榜按钮</t>
   </si>
   <si>
-    <t>ClickTaskBtnTrigger</t>
+    <t>ClickTaskBtnTrigger1</t>
   </si>
   <si>
     <t>K</t>
@@ -150,60 +150,105 @@
     <t>查看任务详情</t>
   </si>
   <si>
+    <t>ClickTaskDetailsTrigger1</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
     <t>派遣弟子执行任务</t>
   </si>
   <si>
+    <t>SendCharacterOnTaskTrigger1</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
     <t>领取任务奖励</t>
   </si>
   <si>
+    <t>ReceiveTaskRewardTrigger1</t>
+  </si>
+  <si>
+    <t>DialogTrigger5</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
+    <t>BuildFacilityTrigger2</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
+    <t>BuildFacilityPanelTrigger2</t>
+  </si>
+  <si>
     <t>Q</t>
   </si>
   <si>
     <t>金牌招募令</t>
   </si>
   <si>
+    <t>DialogTrigger6</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
+    <t>ClickLobbyTrigger2</t>
+  </si>
+  <si>
     <t>S</t>
   </si>
   <si>
     <t>点击金牌招募令招募弟子</t>
   </si>
   <si>
+    <t>LobbyPanelGetCharacterTrigger2</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
+    <t>DialogTrigger7</t>
+  </si>
+  <si>
     <t>U</t>
   </si>
   <si>
+    <t>ClickTaskBtnTrigger2</t>
+  </si>
+  <si>
     <t>V</t>
   </si>
   <si>
+    <t>ClickTaskDetailsTrigger2</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
     <t>选择弟子执行任务</t>
   </si>
   <si>
+    <t>SelectCharacterOnTaskTrigger</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
+    <t>SendCharacterOnTaskTrigger2</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
+    <t>ReceiveTaskRewardTrigger2</t>
+  </si>
+  <si>
     <t>Z</t>
   </si>
   <si>
@@ -237,10 +282,16 @@
     <t>出现工作气泡</t>
   </si>
   <si>
+    <t>DialogTrigger8</t>
+  </si>
+  <si>
     <t>Ad</t>
   </si>
   <si>
     <t>派遣弟子工作</t>
+  </si>
+  <si>
+    <t>SendCharacterWorkTrigger</t>
   </si>
   <si>
     <t>Ae</t>
@@ -452,12 +503,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,62 +538,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,58 +549,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,6 +575,118 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -651,25 +709,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,49 +865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,97 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,65 +1039,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1063,6 +1062,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1076,16 +1090,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1094,137 +1152,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1285,6 +1343,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1666,11 +1726,11 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1919,8 +1979,11 @@
       <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G15" t="s">
+      <c r="C15" t="s">
         <v>43</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1928,20 +1991,26 @@
         <v>12</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
         <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="20">
         <v>13</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="B17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1952,8 +2021,11 @@
       <c r="B18" s="18" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1963,8 +2035,11 @@
       <c r="B19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G19" t="s">
-        <v>48</v>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1974,8 +2049,11 @@
       <c r="B20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G20" t="s">
-        <v>49</v>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1983,10 +2061,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1996,8 +2077,11 @@
       <c r="B22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
-        <v>52</v>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2005,10 +2089,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2018,8 +2105,11 @@
       <c r="B24" s="18" t="s">
         <v>36</v>
       </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2029,8 +2119,11 @@
       <c r="B25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G25" t="s">
-        <v>56</v>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2040,8 +2133,11 @@
       <c r="B26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G26" t="s">
-        <v>57</v>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2049,10 +2145,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2060,21 +2159,27 @@
         <v>24</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="20">
         <v>25</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" t="s">
-        <v>61</v>
+      <c r="B29" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2082,13 +2187,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2096,13 +2201,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2110,24 +2215,27 @@
         <v>28</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="20">
         <v>29</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>71</v>
+      <c r="B33" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2135,24 +2243,27 @@
         <v>30</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="20">
         <v>31</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>75</v>
+      <c r="B35" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2160,13 +2271,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2174,97 +2285,97 @@
         <v>33</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="20">
         <v>34</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>84</v>
+      <c r="B38" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="20">
         <v>35</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>87</v>
+      <c r="B39" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="20">
         <v>36</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>90</v>
+      <c r="B40" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="20">
         <v>37</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>93</v>
+      <c r="B41" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="20">
         <v>38</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>96</v>
+      <c r="B42" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G42" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="20">
         <v>39</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>99</v>
+      <c r="B43" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2291,56 +2402,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>112</v>
+        <v>128</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -2349,10 +2460,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>118</v>
+        <v>134</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -2366,10 +2477,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>120</v>
+        <v>136</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -2383,10 +2494,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>122</v>
+        <v>138</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -2400,10 +2511,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>124</v>
+        <v>140</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -2417,10 +2528,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>126</v>
+        <v>142</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -2430,29 +2541,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2460,29 +2571,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>118</v>
+        <v>148</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2494,10 +2605,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>120</v>
+        <v>152</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2516,10 +2627,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>122</v>
+        <v>153</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2538,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>124</v>
+        <v>154</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2560,10 +2671,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>126</v>
+        <v>155</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -502,11 +502,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -544,47 +544,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,47 +558,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,12 +575,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -672,21 +687,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -715,25 +715,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,37 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,37 +859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,60 +884,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,30 +1037,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1093,20 +1069,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,6 +1096,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,16 +1123,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,133 +1152,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1726,11 +1726,11 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -1726,11 +1726,11 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2038,7 +2038,7 @@
       <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
       <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
       <c r="C25" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12340"/>
+    <workbookView windowWidth="23900" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1726,11 +1726,11 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1738,8 +1738,10 @@
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="18" customWidth="1"/>
     <col min="3" max="3" width="35.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="6" width="7.91666666666667" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="22.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1889,9 +1891,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20">
-        <v>5</v>
-      </c>
+      <c r="A9" s="20"/>
       <c r="B9" s="18" t="s">
         <v>24</v>
       </c>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>27</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>30</v>
@@ -1931,9 +1931,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20">
-        <v>8</v>
-      </c>
+      <c r="A12" s="20"/>
       <c r="B12" s="18" t="s">
         <v>33</v>
       </c>
@@ -1946,7 +1944,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>36</v>
@@ -1960,7 +1958,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>39</v>
@@ -1973,9 +1971,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20">
-        <v>11</v>
-      </c>
+      <c r="A15" s="20"/>
       <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
@@ -1987,9 +1983,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20">
-        <v>12</v>
-      </c>
+      <c r="A16" s="20"/>
       <c r="B16" s="18" t="s">
         <v>45</v>
       </c>
@@ -2002,7 +1996,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="20">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>48</v>
@@ -2016,7 +2010,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>18</v>
@@ -2030,7 +2024,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="20">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>21</v>
@@ -2043,9 +2037,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20">
-        <v>16</v>
-      </c>
+      <c r="A20" s="20"/>
       <c r="B20" s="18" t="s">
         <v>24</v>
       </c>
@@ -2058,7 +2050,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>56</v>
@@ -2072,7 +2064,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>30</v>
@@ -2085,9 +2077,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20">
-        <v>19</v>
-      </c>
+      <c r="A23" s="20"/>
       <c r="B23" s="18" t="s">
         <v>61</v>
       </c>
@@ -2100,7 +2090,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>36</v>
@@ -2114,7 +2104,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="20">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>39</v>
@@ -2127,9 +2117,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20">
-        <v>22</v>
-      </c>
+      <c r="A26" s="20"/>
       <c r="B26" s="18" t="s">
         <v>42</v>
       </c>
@@ -2141,9 +2129,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20">
-        <v>23</v>
-      </c>
+      <c r="A27" s="20"/>
       <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
@@ -2155,9 +2141,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20">
-        <v>24</v>
-      </c>
+      <c r="A28" s="20"/>
       <c r="B28" s="18" t="s">
         <v>45</v>
       </c>
@@ -2170,7 +2154,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="20">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>48</v>
@@ -2184,7 +2168,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="20">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>77</v>
@@ -2198,7 +2182,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="20">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>80</v>
@@ -2211,9 +2195,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="20">
-        <v>28</v>
-      </c>
+      <c r="A32" s="20"/>
       <c r="B32" s="18" t="s">
         <v>83</v>
       </c>
@@ -2226,7 +2208,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="20">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>86</v>
@@ -2239,9 +2221,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="20">
-        <v>30</v>
-      </c>
+      <c r="A34" s="20"/>
       <c r="B34" s="18" t="s">
         <v>89</v>
       </c>
@@ -2254,7 +2234,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="20">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>92</v>
@@ -2267,9 +2247,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="20">
-        <v>32</v>
-      </c>
+      <c r="A36" s="20"/>
       <c r="B36" s="18" t="s">
         <v>95</v>
       </c>
@@ -2281,9 +2259,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20">
-        <v>33</v>
-      </c>
+      <c r="A37" s="20"/>
       <c r="B37" s="18" t="s">
         <v>98</v>
       </c>
@@ -2296,7 +2272,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="20">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>101</v>
@@ -2310,7 +2286,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="20">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>104</v>
@@ -2324,7 +2300,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="20">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>107</v>
@@ -2338,7 +2314,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="20">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>110</v>
@@ -2352,7 +2328,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="20">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>113</v>
@@ -2366,7 +2342,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="20">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>116</v>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23900" windowHeight="12340"/>
+    <workbookView windowWidth="31730" windowHeight="14830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <t>领取任务奖励</t>
   </si>
   <si>
-    <t>ReceiveTaskRewardTrigger1</t>
+    <t>ClickTaskBtnTrigger11</t>
   </si>
   <si>
     <t>DialogTrigger5</t>
@@ -246,7 +246,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>ReceiveTaskRewardTrigger2</t>
+    <t>ClickTaskBtnTrigger22</t>
   </si>
   <si>
     <t>Z</t>
@@ -297,7 +297,7 @@
     <t>Ae</t>
   </si>
   <si>
-    <t>资源上限后建造仓库</t>
+    <t>资源足够后建造仓库</t>
   </si>
   <si>
     <t>WarehouseDialogTrigger</t>
@@ -502,9 +502,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -545,37 +545,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,14 +574,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,24 +596,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,32 +620,41 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,6 +665,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -715,25 +715,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,145 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,6 +1037,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1069,33 +1093,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,11 +1128,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,145 +1140,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1730,7 +1730,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31730" windowHeight="14830"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="192">
   <si>
     <t>ID</t>
   </si>
@@ -129,7 +129,7 @@
     <t>I</t>
   </si>
   <si>
-    <t>剧情引导（让弟子去执行任务）</t>
+    <t>剧情引导（让弟子去执行任务，砍树）</t>
   </si>
   <si>
     <t>DialogTrigger4</t>
@@ -138,163 +138,163 @@
     <t>J</t>
   </si>
   <si>
+    <t>点击砍树气泡</t>
+  </si>
+  <si>
+    <t>ClickTaskBtnTrigger1</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>砍树进度</t>
+  </si>
+  <si>
+    <t>ClickTaskDetailsTrigger1</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>屋舍建造引导2</t>
+  </si>
+  <si>
+    <t>DialogTrigger5</t>
+  </si>
+  <si>
+    <t>BuildFacilityTrigger2</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanelTrigger2</t>
+  </si>
+  <si>
+    <t>金牌招募令</t>
+  </si>
+  <si>
+    <t>DialogTrigger6</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ClickLobbyTrigger2</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>点击金牌招募令招募弟子</t>
+  </si>
+  <si>
+    <t>LobbyPanelGetCharacterTrigger2</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>剧情引导（让弟子去执行任务，采石）</t>
+  </si>
+  <si>
+    <t>DialogTrigger7</t>
+  </si>
+  <si>
+    <t>点击采石气泡</t>
+  </si>
+  <si>
+    <t>CollectStoneTrigger</t>
+  </si>
+  <si>
+    <t>采石进度</t>
+  </si>
+  <si>
+    <t>CollectStoneProgressTrigger</t>
+  </si>
+  <si>
+    <t>剧情引导（建造伙房）</t>
+  </si>
+  <si>
+    <t>KitchenDialogTrigger</t>
+  </si>
+  <si>
+    <t>Aa</t>
+  </si>
+  <si>
+    <t>建造伙房</t>
+  </si>
+  <si>
+    <t>BuildFacility_KitchenTrigger</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>打开建造伙房界面</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanel_KitchenTrigger</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
     <t>点击公告榜按钮</t>
   </si>
   <si>
-    <t>ClickTaskBtnTrigger1</t>
-  </si>
-  <si>
-    <t>K</t>
+    <t>ClickTaskBtnTrigger2</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
   <si>
     <t>查看任务详情</t>
   </si>
   <si>
-    <t>ClickTaskDetailsTrigger1</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t>ClickTaskDetailsTrigger2</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>选择弟子执行任务</t>
+  </si>
+  <si>
+    <t>SelectCharacterOnTaskTrigger</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>派遣弟子执行任务</t>
   </si>
   <si>
-    <t>SendCharacterOnTaskTrigger1</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>领取任务奖励</t>
-  </si>
-  <si>
-    <t>ClickTaskBtnTrigger11</t>
-  </si>
-  <si>
-    <t>DialogTrigger5</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>BuildFacilityTrigger2</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>BuildFacilityPanelTrigger2</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>金牌招募令</t>
-  </si>
-  <si>
-    <t>DialogTrigger6</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>ClickLobbyTrigger2</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>点击金牌招募令招募弟子</t>
-  </si>
-  <si>
-    <t>LobbyPanelGetCharacterTrigger2</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>DialogTrigger7</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>ClickTaskBtnTrigger2</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>ClickTaskDetailsTrigger2</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>选择弟子执行任务</t>
-  </si>
-  <si>
-    <t>SelectCharacterOnTaskTrigger</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>SendCharacterOnTaskTrigger2</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>ClickTaskBtnTrigger22</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>剧情引导（建造伙房）</t>
-  </si>
-  <si>
-    <t>KitchenDialogTrigger</t>
-  </si>
-  <si>
-    <t>Aa</t>
-  </si>
-  <si>
-    <t>建造伙房</t>
-  </si>
-  <si>
-    <t>BuildFacility_KitchenTrigger</t>
-  </si>
-  <si>
-    <t>Ab</t>
-  </si>
-  <si>
-    <t>打开建造伙房界面</t>
-  </si>
-  <si>
-    <t>BuildFacilityPanel_KitchenTrigger</t>
-  </si>
-  <si>
-    <t>Ac</t>
-  </si>
-  <si>
-    <t>出现工作气泡</t>
-  </si>
-  <si>
-    <t>DialogTrigger8</t>
-  </si>
-  <si>
-    <t>Ad</t>
-  </si>
-  <si>
-    <t>派遣弟子工作</t>
-  </si>
-  <si>
-    <t>SendCharacterWorkTrigger</t>
-  </si>
-  <si>
-    <t>Ae</t>
+    <t>建造练功房</t>
+  </si>
+  <si>
+    <t>BuildPracticeFieldEastTrigger</t>
+  </si>
+  <si>
+    <t>访客系统</t>
+  </si>
+  <si>
+    <t>VisitotBtnNormalTipTrigger</t>
+  </si>
+  <si>
+    <t>点击访客系统按钮</t>
+  </si>
+  <si>
+    <t>ClickVisitorBtnTrigger</t>
+  </si>
+  <si>
+    <t>点击访客面板收下按钮</t>
+  </si>
+  <si>
+    <t>ClickVisitorPanelAcceptBtnTrigger</t>
   </si>
   <si>
     <t>资源足够后建造仓库</t>
@@ -376,6 +376,114 @@
   </si>
   <si>
     <t>An</t>
+  </si>
+  <si>
+    <t>武功秘籍引导</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>点击打开弟子界面</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ClickOpenDisciplePanelTrigger</t>
+  </si>
+  <si>
+    <t>目标弟子选择</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ChoiceTargetDiscipleTrigger</t>
+  </si>
+  <si>
+    <t>武功秘籍学习</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ClickStudyKungFuTrigger</t>
+  </si>
+  <si>
+    <t>选择武功秘籍</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ChoiceKungFuTrigger</t>
+  </si>
+  <si>
+    <t>确定选择武功秘籍</t>
+  </si>
+  <si>
+    <t>KungFuTrigger_ConfirmChoiceKungFuTrigger</t>
+  </si>
+  <si>
+    <t>武器引导</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ClickOpenDisciplePanelTrigger</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ChoiceTargetDiscipleTrigger</t>
+  </si>
+  <si>
+    <t>点击武器槽</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ClickArmsBtnTrigger</t>
+  </si>
+  <si>
+    <t>选择武器</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ChoiceArmsTrigger</t>
+  </si>
+  <si>
+    <t>确定选择武器</t>
+  </si>
+  <si>
+    <t>ArmsTrigger_ConfirmChoiceArmsTrigger</t>
+  </si>
+  <si>
+    <t>挑战系统</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>点击挑战系统按钮</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ClickChallengeBtnTrigger1</t>
+  </si>
+  <si>
+    <t>选择挑战对象</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ChoiceChallengeObjTrigger</t>
+  </si>
+  <si>
+    <t>选择挑战关卡</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ChoiceChallengeLevelTrigger</t>
+  </si>
+  <si>
+    <t>点击接受挑战</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ClickAcceptChallengeBtnTrigger</t>
+  </si>
+  <si>
+    <t>点击一键选择</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ClickAKeyChoiceTrigger</t>
+  </si>
+  <si>
+    <t>点击开始战斗</t>
+  </si>
+  <si>
+    <t>ChallengeSystemTrigger_ClickStartChallengeTrigger</t>
   </si>
   <si>
     <t>模块</t>
@@ -502,9 +610,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -545,14 +653,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,13 +752,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -582,37 +760,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,38 +782,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -666,23 +789,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,175 +823,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,16 +1145,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1076,17 +1208,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,30 +1237,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1140,10 +1248,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,19 +1260,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,116 +1281,116 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1335,6 +1443,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1343,8 +1454,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1723,21 +1840,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="35.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="33.3333333333333" style="19" customWidth="1"/>
+    <col min="3" max="3" width="45.25" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="22.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
@@ -1745,22 +1862,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1768,22 +1885,22 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
@@ -1791,82 +1908,82 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20">
+      <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="G5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="22"/>
       <c r="G6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
@@ -1877,10 +1994,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20">
+      <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
@@ -1891,8 +2008,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
@@ -1903,10 +2020,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20">
+      <c r="A10" s="21">
         <v>5</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
@@ -1917,10 +2034,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20">
+      <c r="A11" s="21">
         <v>6</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
@@ -1931,8 +2048,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
@@ -1943,10 +2060,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20">
+      <c r="A13" s="21">
         <v>7</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C13" t="s">
@@ -1957,10 +2074,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20">
+      <c r="A14" s="21">
         <v>8</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
@@ -1971,387 +2088,536 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="18">
+        <v>9</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="22" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="18">
+        <v>10</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="20">
-        <v>9</v>
-      </c>
-      <c r="B17" s="23" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="21">
+        <v>11</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="20">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="20">
-        <v>11</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="21">
+        <v>12</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
-      <c r="B20" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="21"/>
+      <c r="B21" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G20" t="s">
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="20">
-        <v>12</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="G21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="21">
+        <v>13</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G21" t="s">
+      <c r="C22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="20">
-        <v>13</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="21">
+        <v>14</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G22" t="s">
+      <c r="C23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
-      <c r="B23" s="18" t="s">
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="21">
+        <v>15</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="20">
-        <v>14</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="20">
-        <v>15</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="21">
+        <v>16</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G25" t="s">
+      <c r="C26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="22" t="s">
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="21"/>
+      <c r="B27" s="19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18" t="s">
+      <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="22" t="s">
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="21">
+        <v>17</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20">
-        <v>16</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>48</v>
+      <c r="A29" s="21"/>
+      <c r="B29" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="22" t="s">
         <v>76</v>
       </c>
+      <c r="G29" s="24" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20">
-        <v>17</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>77</v>
+      <c r="A30" s="21"/>
+      <c r="B30" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" t="s">
         <v>79</v>
       </c>
+      <c r="G30" s="24" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20">
+      <c r="A31" s="21"/>
+      <c r="B31" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="18">
         <v>18</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18" t="s">
-        <v>83</v>
+      <c r="B32" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="20">
+    <row r="33" spans="1:3">
+      <c r="A33" s="18">
         <v>19</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C33" t="s">
         <v>87</v>
       </c>
-      <c r="G33" t="s">
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18" t="s">
+      <c r="C34" t="s">
         <v>89</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="C35" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="20">
+    <row r="36" spans="1:7">
+      <c r="A36" s="21">
         <v>20</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B36" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>96</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="21"/>
+      <c r="B38" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>99</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="20">
+    <row r="39" spans="1:7">
+      <c r="A39" s="21">
         <v>21</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B39" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>102</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="20">
+    <row r="40" spans="1:7">
+      <c r="A40" s="21">
         <v>22</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B40" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>105</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="20">
+    <row r="41" spans="1:7">
+      <c r="A41" s="21">
         <v>23</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B41" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>108</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="20">
+    <row r="42" spans="1:7">
+      <c r="A42" s="21">
         <v>24</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B42" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>111</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="20">
+    <row r="43" spans="1:7">
+      <c r="A43" s="21">
         <v>25</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B43" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>114</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="20">
+    <row r="44" spans="1:7">
+      <c r="A44" s="21">
         <v>26</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B44" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>117</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="18">
+        <v>27</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="18">
+        <v>28</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="18">
+        <v>29</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2378,56 +2644,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>129</v>
+        <v>164</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -2436,10 +2702,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>135</v>
+        <v>170</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -2453,10 +2719,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>137</v>
+        <v>172</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -2470,10 +2736,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>139</v>
+        <v>174</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>175</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -2487,10 +2753,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>141</v>
+        <v>176</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -2504,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>143</v>
+        <v>178</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -2517,29 +2783,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2547,29 +2813,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>135</v>
+        <v>184</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>171</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2581,10 +2847,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>137</v>
+        <v>188</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2603,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>139</v>
+        <v>189</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>175</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2625,10 +2891,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>141</v>
+        <v>190</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2647,10 +2913,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>143</v>
+        <v>191</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="196">
   <si>
     <t>ID</t>
   </si>
@@ -147,6 +147,12 @@
     <t>K</t>
   </si>
   <si>
+    <t>剧情引导(弟子会自动工作)</t>
+  </si>
+  <si>
+    <t>DiscipleAutoWorkTrigger</t>
+  </si>
+  <si>
     <t>砍树进度</t>
   </si>
   <si>
@@ -235,6 +241,12 @@
   </si>
   <si>
     <t>Ac</t>
+  </si>
+  <si>
+    <t>公告榜介绍</t>
+  </si>
+  <si>
+    <t>TaskPanelTrigger_IntroduceTrigger</t>
   </si>
   <si>
     <t>点击公告榜按钮</t>
@@ -610,11 +622,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -652,6 +664,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -660,17 +680,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,9 +700,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,30 +717,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,47 +732,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,7 +779,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,175 +835,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,7 +1161,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,6 +1177,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,22 +1224,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,25 +1254,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,133 +1272,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1840,14 +1852,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57:C63"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2087,68 +2099,63 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:3">
       <c r="A15" s="21"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="24" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="18">
-        <v>9</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G16" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="18">
+        <v>9</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="18">
         <v>10</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="19" t="s">
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="21">
-        <v>11</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
         <v>52</v>
@@ -2158,34 +2165,34 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="21"/>
+      <c r="A21" s="21">
+        <v>12</v>
+      </c>
       <c r="B21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
+      <c r="G21" t="s">
         <v>55</v>
       </c>
-      <c r="G21" t="s">
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="21">
-        <v>13</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
         <v>58</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>59</v>
@@ -2194,134 +2201,137 @@
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="21"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="21">
+        <v>14</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>44</v>
+      <c r="G24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="21">
-        <v>15</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="G25" t="s">
-        <v>65</v>
+      <c r="G25" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="21">
+        <v>15</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="21">
         <v>16</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="B27" s="19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="21"/>
-      <c r="B27" s="19" t="s">
+      <c r="C27" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
         <v>70</v>
       </c>
-      <c r="G27" t="s">
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="21"/>
+      <c r="B28" s="19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="21">
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="21">
         <v>17</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="B29" s="19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="21"/>
-      <c r="B29" s="19" t="s">
+      <c r="C29" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="C30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="21"/>
-      <c r="B30" s="19" t="s">
+      <c r="G30" t="s">
         <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="21"/>
       <c r="B31" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="21"/>
+      <c r="B32" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="C32" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="18">
+      <c r="G32" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="21"/>
+      <c r="B33" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="18">
         <v>18</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="18">
-        <v>19</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
       <c r="B34" s="19" t="s">
         <v>88</v>
       </c>
@@ -2329,7 +2339,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3">
+      <c r="A35" s="18">
+        <v>19</v>
+      </c>
       <c r="B35" s="19" t="s">
         <v>90</v>
       </c>
@@ -2337,149 +2350,149 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="21">
-        <v>20</v>
-      </c>
-      <c r="B36" s="25" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C36" t="s">
         <v>93</v>
       </c>
-      <c r="G36" t="s">
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="21"/>
-      <c r="B37" s="19" t="s">
+      <c r="C37" t="s">
         <v>95</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="21">
+        <v>20</v>
+      </c>
+      <c r="B38" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G37" t="s">
+      <c r="C38" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="21"/>
-      <c r="B38" s="19" t="s">
+      <c r="G38" t="s">
         <v>98</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="21"/>
+      <c r="B39" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G38" t="s">
+      <c r="C39" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="21">
-        <v>21</v>
-      </c>
-      <c r="B39" s="25" t="s">
+      <c r="G39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="21"/>
+      <c r="B40" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G39" t="s">
+      <c r="C40" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="21">
-        <v>22</v>
-      </c>
-      <c r="B40" s="25" t="s">
+      <c r="G40" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="21">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="21">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" t="s">
         <v>110</v>
-      </c>
-      <c r="C42" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="21">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B43" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" t="s">
         <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>114</v>
-      </c>
-      <c r="G43" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="21">
+        <v>24</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="21">
+        <v>25</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="21">
         <v>26</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="18">
+      <c r="B46" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="18">
         <v>27</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="19" t="s">
         <v>123</v>
       </c>
       <c r="C47" t="s">
@@ -2487,7 +2500,7 @@
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="19" t="s">
         <v>125</v>
       </c>
       <c r="C48" t="s">
@@ -2495,7 +2508,7 @@
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="23" t="s">
         <v>127</v>
       </c>
       <c r="C49" t="s">
@@ -2503,18 +2516,15 @@
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="23" t="s">
         <v>129</v>
       </c>
       <c r="C50" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="18">
-        <v>28</v>
-      </c>
-      <c r="B51" s="26" t="s">
+    <row r="51" spans="2:3">
+      <c r="B51" s="19" t="s">
         <v>131</v>
       </c>
       <c r="C51" t="s">
@@ -2523,52 +2533,52 @@
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="19" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="23" t="s">
-        <v>123</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="18">
+        <v>28</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="23" t="s">
-        <v>135</v>
+      <c r="B54" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="19" t="s">
-        <v>137</v>
+      <c r="B55" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="C55" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="23" t="s">
         <v>139</v>
       </c>
       <c r="C56" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="18">
-        <v>29</v>
-      </c>
+    <row r="57" spans="2:3">
       <c r="B57" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2576,11 +2586,14 @@
       <c r="B58" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="1:3">
+      <c r="A59" s="18">
+        <v>29</v>
+      </c>
       <c r="B59" s="19" t="s">
         <v>145</v>
       </c>
@@ -2618,6 +2631,22 @@
       </c>
       <c r="C63" s="19" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2644,56 +2673,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -2702,10 +2731,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -2719,10 +2748,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -2736,10 +2765,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -2753,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -2770,10 +2799,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -2783,29 +2812,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2813,29 +2842,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2847,10 +2876,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2869,10 +2898,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2891,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2913,10 +2942,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
@@ -496,6 +496,24 @@
   </si>
   <si>
     <t>ChallengeSystemTrigger_ClickStartChallengeTrigger</t>
+  </si>
+  <si>
+    <t>出现工作气泡</t>
+  </si>
+  <si>
+    <t>DialogTrigger8</t>
+  </si>
+  <si>
+    <t>Ad</t>
+  </si>
+  <si>
+    <t>派遣弟子工作</t>
+  </si>
+  <si>
+    <t>SendCharacterWorkTrigger</t>
+  </si>
+  <si>
+    <t>Ae</t>
   </si>
   <si>
     <t>模块</t>
@@ -622,11 +640,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -664,35 +682,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -701,15 +690,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,23 +704,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -754,15 +720,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -778,6 +749,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="DengXian"/>
@@ -786,15 +795,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,6 +853,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -847,109 +919,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,49 +1021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,11 +1175,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,11 +1232,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,45 +1262,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1260,10 +1278,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1275,130 +1293,130 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1852,14 +1870,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2647,6 +2665,32 @@
       </c>
       <c r="C65" s="19" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="21">
+        <v>30</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+      <c r="G66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="21"/>
+      <c r="B67" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2673,56 +2717,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -2731,10 +2775,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -2748,10 +2792,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -2765,10 +2809,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -2782,10 +2826,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -2799,10 +2843,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -2812,29 +2856,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2842,29 +2886,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2876,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2898,10 +2942,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2920,10 +2964,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2942,10 +2986,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="204">
   <si>
     <t>ID</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>An</t>
+  </si>
+  <si>
+    <t>收集系统遮罩引导</t>
+  </si>
+  <si>
+    <t>CollectSystem_ClickLotusrootTrigger</t>
   </si>
   <si>
     <t>武功秘籍引导</t>
@@ -641,9 +647,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -683,75 +689,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,48 +703,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -825,6 +725,112 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -853,169 +859,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,16 +1182,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,8 +1234,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,23 +1243,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,27 +1265,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,10 +1284,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1290,133 +1296,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1870,14 +1876,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="$A47:$XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2507,17 +2513,18 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="18">
-        <v>27</v>
-      </c>
-      <c r="B47" s="19" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="25" t="s">
         <v>123</v>
       </c>
       <c r="C47" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="1:3">
+      <c r="A48" s="18">
+        <v>27</v>
+      </c>
       <c r="B48" s="19" t="s">
         <v>125</v>
       </c>
@@ -2526,7 +2533,7 @@
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="19" t="s">
         <v>127</v>
       </c>
       <c r="C49" t="s">
@@ -2542,7 +2549,7 @@
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="23" t="s">
         <v>131</v>
       </c>
       <c r="C51" t="s">
@@ -2557,43 +2564,43 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="18">
-        <v>28</v>
-      </c>
-      <c r="B53" s="26" t="s">
+    <row r="53" spans="2:3">
+      <c r="B53" s="19" t="s">
         <v>135</v>
       </c>
       <c r="C53" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="19" t="s">
-        <v>125</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="18">
+        <v>28</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="19" t="s">
         <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="23" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="23" t="s">
         <v>141</v>
       </c>
       <c r="C57" t="s">
@@ -2608,18 +2615,18 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="18">
-        <v>29</v>
-      </c>
+    <row r="59" spans="2:3">
       <c r="B59" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="1:3">
+      <c r="A60" s="18">
+        <v>29</v>
+      </c>
       <c r="B60" s="19" t="s">
         <v>147</v>
       </c>
@@ -2667,30 +2674,38 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="21">
+    <row r="66" spans="2:3">
+      <c r="B66" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="21">
         <v>30</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" t="s">
-        <v>160</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="B67" s="25" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="21"/>
-      <c r="B67" s="19" t="s">
+      <c r="C67" t="s">
         <v>162</v>
       </c>
-      <c r="C67" t="s">
+      <c r="G67" t="s">
         <v>163</v>
       </c>
-      <c r="G67" s="24" t="s">
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="21"/>
+      <c r="B68" s="19" t="s">
         <v>164</v>
+      </c>
+      <c r="C68" t="s">
+        <v>165</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2717,56 +2732,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -2775,10 +2790,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -2792,10 +2807,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -2809,10 +2824,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -2826,10 +2841,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -2843,10 +2858,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -2856,29 +2871,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2886,29 +2901,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2920,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2942,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2964,10 +2979,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2986,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="204">
   <si>
     <t>ID</t>
   </si>
@@ -646,10 +646,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -688,8 +688,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,21 +787,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,30 +795,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,60 +825,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
@@ -859,37 +859,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,43 +997,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,85 +1015,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,36 +1197,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1243,8 +1223,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,17 +1244,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,10 +1284,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1296,137 +1296,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1497,6 +1497,9 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1876,14 +1879,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="$A47:$XFD47"/>
+      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2706,6 +2709,25 @@
       </c>
       <c r="G68" s="24" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="18">
+        <v>31</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2767,7 +2789,7 @@
       <c r="D4" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>177</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -2792,7 +2814,7 @@
       <c r="D5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="28" t="s">
         <v>183</v>
       </c>
       <c r="F5" s="8"/>
@@ -2809,7 +2831,7 @@
       <c r="D6" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="28" t="s">
         <v>185</v>
       </c>
       <c r="F6" s="8"/>
@@ -2826,7 +2848,7 @@
       <c r="D7" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="28" t="s">
         <v>187</v>
       </c>
       <c r="F7" s="8"/>
@@ -2843,7 +2865,7 @@
       <c r="D8" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="28" t="s">
         <v>189</v>
       </c>
       <c r="F8" s="8"/>
@@ -2860,7 +2882,7 @@
       <c r="D9" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>191</v>
       </c>
       <c r="F9" s="10"/>
@@ -2909,7 +2931,7 @@
       <c r="D13" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="28" t="s">
         <v>183</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -2937,7 +2959,7 @@
       <c r="D14" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>185</v>
       </c>
       <c r="F14" s="4"/>
@@ -2959,7 +2981,7 @@
       <c r="D15" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="28" t="s">
         <v>187</v>
       </c>
       <c r="F15" s="4"/>
@@ -2981,7 +3003,7 @@
       <c r="D16" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="28" t="s">
         <v>189</v>
       </c>
       <c r="F16" s="4"/>
@@ -3003,7 +3025,7 @@
       <c r="D17" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="28" t="s">
         <v>191</v>
       </c>
       <c r="F17" s="4"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="208">
   <si>
     <t>ID</t>
   </si>
@@ -520,6 +520,18 @@
   </si>
   <si>
     <t>Ae</t>
+  </si>
+  <si>
+    <t>食物不足引导</t>
+  </si>
+  <si>
+    <t>FoodNotEnoughTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>点击观看视频获取食物</t>
+  </si>
+  <si>
+    <t>FoodNotEnoughTrigger_ClickFoodBtnBrigger</t>
   </si>
   <si>
     <t>模块</t>
@@ -646,11 +658,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -688,9 +700,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,10 +775,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -721,36 +807,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,68 +838,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,7 +871,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,19 +973,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,25 +1003,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,109 +1039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,17 +1193,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,16 +1256,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1243,51 +1290,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1296,137 +1308,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1500,6 +1512,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1879,14 +1894,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomRight" activeCell="B71" sqref="B71:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2728,6 +2743,25 @@
       </c>
       <c r="C70" s="21" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="18">
+        <v>32</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2754,56 +2788,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>177</v>
+        <v>180</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>181</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -2812,10 +2846,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -2829,10 +2863,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>189</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -2846,10 +2880,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>191</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -2863,10 +2897,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>193</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -2880,10 +2914,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -2893,29 +2927,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2923,29 +2957,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>183</v>
+        <v>200</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2957,10 +2991,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>185</v>
+        <v>204</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>189</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2979,10 +3013,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>187</v>
+        <v>205</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>191</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3001,10 +3035,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>189</v>
+        <v>206</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>193</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3023,10 +3057,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>191</v>
+        <v>207</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>195</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="226">
   <si>
     <t>ID</t>
   </si>
@@ -291,6 +291,78 @@
     <t>BuildPracticeFieldEastTrigger</t>
   </si>
   <si>
+    <t>招募系统引导</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_IntroduceTrigger1</t>
+  </si>
+  <si>
+    <t>招募系统引导2</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_IntroduceTrigger2</t>
+  </si>
+  <si>
+    <t>招募系统引导，点击讲武堂</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_ClickLobbyFacilityTrigger</t>
+  </si>
+  <si>
+    <t>招募系统引导，点击银牌招募令</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_ClickGetCharacterTrigger</t>
+  </si>
+  <si>
+    <t>招募系统引导，招募完成</t>
+  </si>
+  <si>
+    <t>RecruitmentSystem_FinishedTrigger</t>
+  </si>
+  <si>
+    <t>出现工作气泡</t>
+  </si>
+  <si>
+    <t>DialogTrigger8</t>
+  </si>
+  <si>
+    <t>Ad</t>
+  </si>
+  <si>
+    <t>派遣弟子工作</t>
+  </si>
+  <si>
+    <t>SendCharacterWorkTrigger</t>
+  </si>
+  <si>
+    <t>Ae</t>
+  </si>
+  <si>
+    <t>签到系统引导</t>
+  </si>
+  <si>
+    <t>SignInSystem_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>点击签到按钮</t>
+  </si>
+  <si>
+    <t>SignInSystem_ClickSignBtnTrigger</t>
+  </si>
+  <si>
+    <t>点击签到领取按钮</t>
+  </si>
+  <si>
+    <t>SignInSystem_ClickSignReceiveBtnTrigger</t>
+  </si>
+  <si>
+    <t>签到完成</t>
+  </si>
+  <si>
+    <t>SignInSystem_FinishedTrigger</t>
+  </si>
+  <si>
     <t>访客系统</t>
   </si>
   <si>
@@ -502,24 +574,6 @@
   </si>
   <si>
     <t>ChallengeSystemTrigger_ClickStartChallengeTrigger</t>
-  </si>
-  <si>
-    <t>出现工作气泡</t>
-  </si>
-  <si>
-    <t>DialogTrigger8</t>
-  </si>
-  <si>
-    <t>Ad</t>
-  </si>
-  <si>
-    <t>派遣弟子工作</t>
-  </si>
-  <si>
-    <t>SendCharacterWorkTrigger</t>
-  </si>
-  <si>
-    <t>Ae</t>
   </si>
   <si>
     <t>食物不足引导</t>
@@ -658,11 +712,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -700,24 +754,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -737,6 +778,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -744,23 +822,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,11 +844,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,23 +868,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,18 +882,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -871,7 +925,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,13 +1045,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,91 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,43 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,8 +1250,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,56 +1261,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,16 +1294,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1308,19 +1362,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1329,112 +1383,112 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1506,15 +1560,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1894,14 +1948,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B71" sqref="B71:C72"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2381,387 +2435,481 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="18">
-        <v>19</v>
-      </c>
-      <c r="B35" s="19" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="18">
+        <v>33</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="19" t="s">
+    <row r="37" spans="2:3">
+      <c r="B37" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="19" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="21">
-        <v>20</v>
-      </c>
-      <c r="B38" s="25" t="s">
+    <row r="39" spans="2:3">
+      <c r="B39" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>97</v>
       </c>
-      <c r="G38" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="18">
+        <v>35</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19" t="s">
+      <c r="C40" t="s">
         <v>99</v>
-      </c>
-      <c r="C39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="21"/>
-      <c r="B40" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="21">
-        <v>21</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="21">
-        <v>22</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>108</v>
+        <v>30</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G42" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="21">
-        <v>23</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>111</v>
+      <c r="A43" s="21"/>
+      <c r="B43" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="21">
-        <v>24</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" t="s">
-        <v>116</v>
-      </c>
+      <c r="A44" s="21"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="21">
-        <v>25</v>
-      </c>
-      <c r="B45" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="21"/>
+      <c r="B46" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="21"/>
+      <c r="B47" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="21">
+        <v>36</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="18">
+        <v>19</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
         <v>117</v>
-      </c>
-      <c r="C45" t="s">
-        <v>118</v>
-      </c>
-      <c r="G45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="21">
-        <v>26</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" t="s">
-        <v>121</v>
-      </c>
-      <c r="G46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="18">
-        <v>27</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="21">
+        <v>20</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="21"/>
+      <c r="B54" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="21"/>
+      <c r="B55" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="21">
+        <v>21</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="21">
+        <v>22</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" t="s">
         <v>133</v>
       </c>
-      <c r="C52" t="s">
+      <c r="G57" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="19" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" s="21">
+        <v>23</v>
+      </c>
+      <c r="B58" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C58" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="18">
-        <v>28</v>
-      </c>
-      <c r="B54" s="26" t="s">
+      <c r="G58" t="s">
         <v>137</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="21">
+        <v>24</v>
+      </c>
+      <c r="B59" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="C59" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="G59" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="23" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="21">
+        <v>25</v>
+      </c>
+      <c r="B60" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C60" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="19" t="s">
+      <c r="G60" t="s">
         <v>143</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="21">
+        <v>26</v>
+      </c>
+      <c r="B61" s="26" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="19" t="s">
+      <c r="C61" t="s">
         <v>145</v>
       </c>
-      <c r="C59" t="s">
+      <c r="G61" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="18">
-        <v>29</v>
-      </c>
-      <c r="B60" s="19" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C62" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="19" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="18">
+        <v>27</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C63" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C66" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="19" t="s">
+    <row r="67" spans="2:3">
+      <c r="B67" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C67" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="19" t="s">
+    <row r="68" spans="2:3">
+      <c r="B68" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C68" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="21">
-        <v>30</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" t="s">
-        <v>162</v>
-      </c>
-      <c r="G67" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="21"/>
-      <c r="B68" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C68" t="s">
-        <v>165</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="18">
+        <v>28</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="18">
+        <v>29</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="18">
         <v>31</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B82" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C82" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="27" t="s">
+    <row r="83" spans="2:3">
+      <c r="B83" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C83" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="18">
+    <row r="84" spans="1:3">
+      <c r="A84" s="18">
         <v>32</v>
       </c>
-      <c r="B71" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C71" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C72" t="s">
-        <v>170</v>
+      <c r="B84" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2788,56 +2936,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -2846,10 +2994,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -2863,10 +3011,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -2880,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -2897,10 +3045,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -2914,10 +3062,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -2927,29 +3075,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2957,29 +3105,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2991,10 +3139,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3013,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3035,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3057,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -363,6 +363,33 @@
     <t>SignInSystem_FinishedTrigger</t>
   </si>
   <si>
+    <t>资源足够后建造仓库</t>
+  </si>
+  <si>
+    <t>WarehouseDialogTrigger</t>
+  </si>
+  <si>
+    <t>Af</t>
+  </si>
+  <si>
+    <t>建造仓库</t>
+  </si>
+  <si>
+    <t>BuildFacility_WarehouseTrigger</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>打开建造仓库界面</t>
+  </si>
+  <si>
+    <t>BuildFacilityPanel_WarehouseTrigger</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
     <t>访客系统</t>
   </si>
   <si>
@@ -379,33 +406,6 @@
   </si>
   <si>
     <t>ClickVisitorPanelAcceptBtnTrigger</t>
-  </si>
-  <si>
-    <t>资源足够后建造仓库</t>
-  </si>
-  <si>
-    <t>WarehouseDialogTrigger</t>
-  </si>
-  <si>
-    <t>Af</t>
-  </si>
-  <si>
-    <t>建造仓库</t>
-  </si>
-  <si>
-    <t>BuildFacility_WarehouseTrigger</t>
-  </si>
-  <si>
-    <t>Ag</t>
-  </si>
-  <si>
-    <t>打开建造仓库界面</t>
-  </si>
-  <si>
-    <t>BuildFacilityPanel_WarehouseTrigger</t>
-  </si>
-  <si>
-    <t>Ah</t>
   </si>
   <si>
     <t>百草屋建造完后 文本说明</t>
@@ -754,24 +754,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,16 +776,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,8 +799,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,13 +816,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,8 +830,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,9 +867,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,14 +890,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,14 +897,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -925,7 +925,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +973,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,13 +1021,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,133 +1087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,6 +1247,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1266,16 +1296,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,36 +1320,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1350,10 +1350,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1362,137 +1362,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1564,9 +1564,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1948,14 +1945,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2555,360 +2552,363 @@
       </c>
       <c r="G48" s="24"/>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="18">
-        <v>19</v>
-      </c>
-      <c r="B50" s="19" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" s="21">
+        <v>20</v>
+      </c>
+      <c r="B50" s="26" t="s">
         <v>114</v>
       </c>
       <c r="C50" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="51" spans="2:3">
+      <c r="G50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="21"/>
       <c r="B51" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
+        <v>118</v>
+      </c>
+      <c r="G51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" ht="13" customHeight="1" spans="1:7">
+      <c r="A52" s="21"/>
       <c r="B52" s="19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="21">
-        <v>20</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" t="s">
         <v>121</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G52" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="21"/>
+    <row r="54" spans="1:3">
+      <c r="A54" s="18">
+        <v>19</v>
+      </c>
       <c r="B54" s="19" t="s">
         <v>123</v>
       </c>
       <c r="C54" t="s">
         <v>124</v>
       </c>
-      <c r="G54" t="s">
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="21"/>
-      <c r="B55" s="19" t="s">
+      <c r="C55" t="s">
         <v>126</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="G55" t="s">
+      <c r="C56" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="21">
-        <v>21</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" t="s">
-        <v>130</v>
-      </c>
-      <c r="G56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="21">
-        <v>22</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" t="s">
-        <v>134</v>
-      </c>
+    <row r="57" ht="13" customHeight="1" spans="1:1">
+      <c r="A57" s="21"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="21">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G58" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="21">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G59" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="21">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G60" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="21">
+        <v>24</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="21">
+        <v>25</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>142</v>
+      </c>
+      <c r="G62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="21">
         <v>26</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B63" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
         <v>145</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G63" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="26" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="18">
+    <row r="65" spans="1:3">
+      <c r="A65" s="18">
         <v>27</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B65" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="19" t="s">
+    <row r="66" spans="2:3">
+      <c r="B66" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="23" t="s">
+    <row r="67" spans="2:3">
+      <c r="B67" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C67" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="23" t="s">
+    <row r="68" spans="2:3">
+      <c r="B68" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C68" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="19" t="s">
+    <row r="69" spans="2:3">
+      <c r="B69" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="18">
-        <v>28</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="18">
+        <v>28</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C72" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="23" t="s">
+    <row r="73" spans="2:3">
+      <c r="B73" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="23" t="s">
+    <row r="74" spans="2:3">
+      <c r="B74" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C74" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="19" t="s">
+    <row r="75" spans="2:3">
+      <c r="B75" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="18">
-        <v>29</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
+        <v>169</v>
+      </c>
+      <c r="C76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="18">
+        <v>29</v>
+      </c>
       <c r="B77" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C83" s="19" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="18">
-        <v>31</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="18">
+        <v>31</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="18">
         <v>32</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B86" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="19" t="s">
+    <row r="87" spans="2:3">
+      <c r="B87" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C87" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       <c r="D4" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>199</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -2996,7 +2996,7 @@
       <c r="D5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>205</v>
       </c>
       <c r="F5" s="8"/>
@@ -3013,7 +3013,7 @@
       <c r="D6" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>207</v>
       </c>
       <c r="F6" s="8"/>
@@ -3030,7 +3030,7 @@
       <c r="D7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>209</v>
       </c>
       <c r="F7" s="8"/>
@@ -3047,7 +3047,7 @@
       <c r="D8" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>211</v>
       </c>
       <c r="F8" s="8"/>
@@ -3064,7 +3064,7 @@
       <c r="D9" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>213</v>
       </c>
       <c r="F9" s="10"/>
@@ -3113,7 +3113,7 @@
       <c r="D13" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>205</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -3141,7 +3141,7 @@
       <c r="D14" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>207</v>
       </c>
       <c r="F14" s="4"/>
@@ -3163,7 +3163,7 @@
       <c r="D15" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>209</v>
       </c>
       <c r="F15" s="4"/>
@@ -3185,7 +3185,7 @@
       <c r="D16" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>211</v>
       </c>
       <c r="F16" s="4"/>
@@ -3207,7 +3207,7 @@
       <c r="D17" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>213</v>
       </c>
       <c r="F17" s="4"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="222">
   <si>
     <t>ID</t>
   </si>
@@ -243,46 +243,34 @@
     <t>Ac</t>
   </si>
   <si>
-    <t>公告榜介绍</t>
-  </si>
-  <si>
-    <t>TaskPanelTrigger_IntroduceTrigger</t>
-  </si>
-  <si>
-    <t>点击公告榜按钮</t>
-  </si>
-  <si>
-    <t>ClickTaskBtnTrigger2</t>
+    <t>随机战斗引导介绍</t>
+  </si>
+  <si>
+    <t>RandomFightTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>点击随机战斗按钮</t>
+  </si>
+  <si>
+    <t>RandomFightTrigger_ClickTaskBtnTrigger2</t>
   </si>
   <si>
     <t>V</t>
   </si>
   <si>
-    <t>查看任务详情</t>
-  </si>
-  <si>
-    <t>ClickTaskDetailsTrigger2</t>
+    <t>点击前往按钮</t>
+  </si>
+  <si>
+    <t>RandomFightTrigger_ClickAcceptBtn</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>选择弟子执行任务</t>
-  </si>
-  <si>
-    <t>SelectCharacterOnTaskTrigger</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>派遣弟子执行任务</t>
-  </si>
-  <si>
-    <t>SendCharacterOnTaskTrigger2</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>战斗结束介绍</t>
+  </si>
+  <si>
+    <t>RandomFightTrigger_FinishedIntroduce</t>
   </si>
   <si>
     <t>建造练功房</t>
@@ -712,11 +700,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -755,15 +743,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,17 +771,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,16 +834,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,55 +872,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,14 +885,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -925,7 +913,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,31 +1015,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,97 +1069,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,25 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,21 +1236,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1288,9 +1261,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1310,16 +1300,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1333,27 +1332,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1362,137 +1350,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1560,6 +1548,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1948,11 +1942,11 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2367,7 +2361,7 @@
       <c r="A29" s="21">
         <v>17</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="25" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
@@ -2375,7 +2369,7 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C30" t="s">
@@ -2387,7 +2381,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="21"/>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C31" t="s">
@@ -2398,73 +2392,65 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="21"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="21">
+        <v>37</v>
+      </c>
+      <c r="B32" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="21"/>
-      <c r="B33" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>87</v>
-      </c>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="18">
         <v>18</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="18">
         <v>33</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2472,36 +2458,36 @@
         <v>35</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="21">
         <v>30</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>100</v>
+      <c r="B42" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="21"/>
       <c r="B43" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2513,30 +2499,30 @@
         <v>34</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="21"/>
       <c r="B46" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="21"/>
       <c r="B47" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G47" s="24"/>
     </row>
@@ -2545,10 +2531,10 @@
         <v>36</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G48" s="24"/>
     </row>
@@ -2556,38 +2542,38 @@
       <c r="A50" s="21">
         <v>20</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>114</v>
+      <c r="B50" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G50" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="21"/>
       <c r="B51" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" ht="13" customHeight="1" spans="1:7">
       <c r="A52" s="21"/>
       <c r="B52" s="19" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2595,26 +2581,26 @@
         <v>19</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" ht="13" customHeight="1" spans="1:1">
@@ -2624,93 +2610,93 @@
       <c r="A58" s="21">
         <v>21</v>
       </c>
-      <c r="B58" s="26" t="s">
-        <v>129</v>
+      <c r="B58" s="28" t="s">
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="21">
         <v>22</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>132</v>
+      <c r="B59" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="21">
         <v>23</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>135</v>
+      <c r="B60" s="28" t="s">
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G60" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="21">
         <v>24</v>
       </c>
-      <c r="B61" s="26" t="s">
-        <v>138</v>
+      <c r="B61" s="28" t="s">
+        <v>134</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G61" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="21">
         <v>25</v>
       </c>
-      <c r="B62" s="26" t="s">
-        <v>141</v>
+      <c r="B62" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G62" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="21">
         <v>26</v>
       </c>
-      <c r="B63" s="26" t="s">
-        <v>144</v>
+      <c r="B63" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G63" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="21"/>
-      <c r="B64" s="26" t="s">
-        <v>147</v>
+      <c r="B64" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2718,101 +2704,101 @@
         <v>27</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="18">
         <v>28</v>
       </c>
-      <c r="B71" s="25" t="s">
-        <v>161</v>
+      <c r="B71" s="27" t="s">
+        <v>157</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2820,58 +2806,58 @@
         <v>29</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2886,7 +2872,7 @@
       </c>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C85" s="21" t="s">
@@ -2897,19 +2883,19 @@
       <c r="A86" s="18">
         <v>32</v>
       </c>
-      <c r="B86" s="25" t="s">
-        <v>185</v>
+      <c r="B86" s="27" t="s">
+        <v>181</v>
       </c>
       <c r="C86" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2936,56 +2922,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -2994,10 +2980,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>201</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3011,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>207</v>
+        <v>202</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>203</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3028,10 +3014,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3045,10 +3031,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>211</v>
+        <v>206</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3062,10 +3048,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>213</v>
+        <v>208</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>209</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3075,29 +3061,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3105,29 +3091,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>205</v>
+        <v>214</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>201</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3139,10 +3125,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>207</v>
+        <v>218</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>203</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3161,10 +3147,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>209</v>
+        <v>219</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3183,10 +3169,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>211</v>
+        <v>220</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3205,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>213</v>
+        <v>221</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>209</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="230">
   <si>
     <t>ID</t>
   </si>
@@ -574,6 +574,30 @@
   </si>
   <si>
     <t>FoodNotEnoughTrigger_ClickFoodBtnBrigger</t>
+  </si>
+  <si>
+    <t>镖车建造引导</t>
+  </si>
+  <si>
+    <t>DeliverTrigger_BuildTrigger</t>
+  </si>
+  <si>
+    <t>点击镖局</t>
+  </si>
+  <si>
+    <t>DeliverTrigger_ClickDeliverTrigger</t>
+  </si>
+  <si>
+    <t>镖局点击快速出发按钮</t>
+  </si>
+  <si>
+    <t>DeliverTrigger_ClickQuickStartBtnTrigger</t>
+  </si>
+  <si>
+    <t>镖局点击双倍加速按钮</t>
+  </si>
+  <si>
+    <t>DeliverTrigger_ClickDoubleSpeedUpBtnTrigger</t>
   </si>
   <si>
     <t>模块</t>
@@ -701,10 +725,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -743,7 +767,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,17 +787,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,16 +802,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,15 +826,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -849,8 +848,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,7 +882,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,14 +897,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,7 +937,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,31 +1087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,127 +1105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,15 +1276,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1270,17 +1285,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,6 +1318,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1324,11 +1342,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1338,10 +1362,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1353,130 +1377,130 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1939,14 +1963,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="B92" sqref="B92:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2896,6 +2920,44 @@
       </c>
       <c r="C87" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="18">
+        <v>38</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="18">
+        <v>39</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2922,56 +2984,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -2980,10 +3042,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -2997,10 +3059,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3014,10 +3076,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3031,10 +3093,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3048,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3061,29 +3123,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3091,29 +3153,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3125,10 +3187,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3147,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3169,10 +3231,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3191,10 +3253,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="244">
   <si>
     <t>ID</t>
   </si>
@@ -598,6 +598,48 @@
   </si>
   <si>
     <t>DeliverTrigger_ClickDoubleSpeedUpBtnTrigger</t>
+  </si>
+  <si>
+    <t>伏魔塔系统介绍引导</t>
+  </si>
+  <si>
+    <t>TowerTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>点击伏魔塔按钮</t>
+  </si>
+  <si>
+    <t>TowerTrigger_ClickTowerBtnTrigger</t>
+  </si>
+  <si>
+    <t>伏魔塔讲解</t>
+  </si>
+  <si>
+    <t>TowerTrigger_IntroduceTrigger2</t>
+  </si>
+  <si>
+    <t>伏魔塔点击挑战按钮</t>
+  </si>
+  <si>
+    <t>TowerTrigger_ClickChallengeBtnTrigger</t>
+  </si>
+  <si>
+    <t>伏魔塔点击一键选择弟子</t>
+  </si>
+  <si>
+    <t>TowerTrigger_ClickAKeyChoiceBtnTrigger</t>
+  </si>
+  <si>
+    <t>伏魔塔 点击开始战斗按钮</t>
+  </si>
+  <si>
+    <t>TowerTrigger_ClickStartFightBtnTrigger</t>
+  </si>
+  <si>
+    <t>伏魔塔_战斗结束_点击商店按钮</t>
+  </si>
+  <si>
+    <t>TowerTrigger_FightFinishedClickShopBtnTrigger</t>
   </si>
   <si>
     <t>模块</t>
@@ -724,11 +766,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -774,6 +816,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -787,23 +836,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,11 +868,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -872,6 +922,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -888,23 +945,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,7 +979,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,13 +1021,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,19 +1063,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,73 +1105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,37 +1123,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,20 +1318,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1314,15 +1356,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1356,16 +1389,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1374,16 +1416,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1398,13 +1440,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1413,94 +1452,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1963,14 +2005,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B92" sqref="B92:C92"/>
+      <selection pane="bottomRight" activeCell="B100" sqref="B100:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2958,6 +3000,68 @@
       </c>
       <c r="C92" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="18">
+        <v>40</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="18">
+        <v>41</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2984,56 +3088,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3042,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3059,10 +3163,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3076,10 +3180,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3093,10 +3197,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3110,10 +3214,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3123,29 +3227,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3153,29 +3257,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3187,10 +3291,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3209,10 +3313,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>227</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>213</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3231,10 +3335,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3253,10 +3357,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="258">
   <si>
     <t>ID</t>
   </si>
@@ -640,6 +640,48 @@
   </si>
   <si>
     <t>TowerTrigger_FightFinishedClickShopBtnTrigger</t>
+  </si>
+  <si>
+    <t>试炼系统介绍引导</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_IntroduceTrigger</t>
+  </si>
+  <si>
+    <t>点击试炼按钮</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_ClickTrialBtnTrigger</t>
+  </si>
+  <si>
+    <t>试炼系统介绍引导2</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_IntroduceTrigger2</t>
+  </si>
+  <si>
+    <t>试炼系统_点击前往按钮</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_ClickStartBtnTrigger</t>
+  </si>
+  <si>
+    <t>试炼系统，选择弟子按钮</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_ClickChoiceDiscipleTrigger</t>
+  </si>
+  <si>
+    <t>试炼系统，选择弟子</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_ChoiceDiscipleBtnTrigger</t>
+  </si>
+  <si>
+    <t>试炼系统，点击进入试炼按钮</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_ClickEnterTrialBtnTrigger</t>
   </si>
   <si>
     <t>模块</t>
@@ -767,10 +809,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -808,8 +850,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,20 +860,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,9 +873,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,6 +933,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
@@ -883,63 +972,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,6 +982,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,7 +1021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,7 +1039,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,7 +1087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,37 +1105,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,49 +1129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,7 +1153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,36 +1344,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1355,22 +1377,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1392,6 +1423,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1404,10 +1446,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1416,133 +1458,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2005,14 +2047,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B100" sqref="B100:C100"/>
+      <selection pane="bottomRight" activeCell="B102" sqref="B102:C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3062,6 +3104,65 @@
       </c>
       <c r="C100" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="18">
+        <v>42</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3088,56 +3189,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3146,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3163,10 +3264,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3180,10 +3281,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3197,10 +3298,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3214,10 +3315,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3227,29 +3328,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3257,29 +3358,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3291,10 +3392,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3313,10 +3414,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>241</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3335,10 +3436,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3357,10 +3458,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="262">
   <si>
     <t>ID</t>
   </si>
@@ -682,6 +682,18 @@
   </si>
   <si>
     <t>HeroTrialSystemTrigger_ClickEnterTrialBtnTrigger</t>
+  </si>
+  <si>
+    <t>试炼系统，点击完成试炼</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_ClickTrialFinishedTrigger</t>
+  </si>
+  <si>
+    <t>试炼系统，弟子突破成功</t>
+  </si>
+  <si>
+    <t>HeroTrialSystemTrigger_DiscipleUpgradSuccessTrigger</t>
   </si>
   <si>
     <t>模块</t>
@@ -808,10 +820,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
@@ -850,9 +862,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,36 +876,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
@@ -902,16 +883,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,22 +908,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -958,7 +915,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,8 +946,32 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,6 +986,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,7 +1033,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,19 +1081,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,25 +1135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,37 +1153,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,61 +1195,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,16 +1356,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1377,7 +1389,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,22 +1398,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1423,6 +1435,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1431,25 +1452,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1461,130 +1473,130 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2047,14 +2059,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102:C108"/>
+      <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3163,6 +3175,25 @@
       </c>
       <c r="C108" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="18">
+        <v>43</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3189,56 +3220,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3247,10 +3278,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3264,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3281,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3298,10 +3329,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3315,10 +3346,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3328,29 +3359,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3358,29 +3389,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3392,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3414,10 +3445,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3436,10 +3467,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3458,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="266">
   <si>
     <t>ID</t>
   </si>
@@ -640,6 +640,18 @@
   </si>
   <si>
     <t>TowerTrigger_FightFinishedClickShopBtnTrigger</t>
+  </si>
+  <si>
+    <t>伏魔塔挑战成功</t>
+  </si>
+  <si>
+    <t>TowerTrigger_SuccessTrigger</t>
+  </si>
+  <si>
+    <t>伏魔塔挑战失败</t>
+  </si>
+  <si>
+    <t>TowerTrigger_FaildTrigger</t>
   </si>
   <si>
     <t>试炼系统介绍引导</t>
@@ -820,11 +832,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -863,6 +875,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -876,41 +950,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -922,7 +966,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -938,42 +982,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -984,16 +996,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,6 +1006,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,7 +1045,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,7 +1087,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,133 +1201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,13 +1213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,50 +1382,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1436,19 +1411,56 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,10 +1470,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1470,133 +1482,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2059,14 +2071,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
+      <selection pane="bottomRight" activeCell="B101" sqref="B101:C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3118,26 +3130,32 @@
         <v>206</v>
       </c>
     </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="18">
+        <v>44</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" t="s">
+        <v>208</v>
+      </c>
+    </row>
     <row r="102" spans="1:3">
       <c r="A102" s="18">
+        <v>45</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="18">
         <v>42</v>
       </c>
-      <c r="B102" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C102" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3">
       <c r="B104" s="19" t="s">
         <v>211</v>
       </c>
@@ -3177,10 +3195,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="18">
-        <v>43</v>
-      </c>
+    <row r="109" spans="2:3">
       <c r="B109" s="19" t="s">
         <v>221</v>
       </c>
@@ -3194,6 +3209,25 @@
       </c>
       <c r="C110" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="18">
+        <v>43</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3220,56 +3254,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -3278,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -3295,10 +3329,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -3312,10 +3346,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -3329,10 +3363,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -3346,10 +3380,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -3359,29 +3393,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3389,29 +3423,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -3423,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -3445,10 +3479,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -3467,10 +3501,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -3489,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>

--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\ModooProject\simswordsman\Tables\Sources\guide\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B70717-F6CF-4CCD-B6F1-70ACBB865178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="278">
   <si>
     <t>ID</t>
   </si>
@@ -826,19 +832,63 @@
   <si>
     <t>非数值类</t>
   </si>
+  <si>
+    <t>竞技场系统介绍引导</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击竞技场按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场点击挑战按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场点击一键选择弟子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场点击选定开始战斗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场_战斗结束_点击商城按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaSystemTrigger_IntroduceTrigger</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaSystemTrigger_ClickChallengeBtnTrigger</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaSystemTrigger_ClickAKeyChoiceBtnTrigger</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaSystemTrigger_ClickStartFightBtnTrigger</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaSystemTrigger_FightFinishedClickShopBtnTrigger</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaSystemTrigger_ClickArenaBtnTrigger</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,6 +900,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -857,6 +908,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -864,6 +916,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -874,151 +927,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,13 +942,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,182 +958,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1366,253 +1107,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1620,49 +1119,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1693,65 +1150,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -1771,7 +1228,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1779,6 +1236,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2065,50 +1525,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B101" sqref="B101:C102"/>
+      <selection pane="bottomRight" activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="33.3333333333333" style="19" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="45.25" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="22.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -2116,105 +1575,105 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="21">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="8"/>
       <c r="G6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
@@ -2225,10 +1684,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
@@ -2239,8 +1698,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C9" t="s">
@@ -2251,10 +1710,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
@@ -2265,10 +1724,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
@@ -2279,8 +1738,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="21"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
@@ -2291,10 +1750,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C13" t="s">
@@ -2305,10 +1764,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
@@ -2318,9 +1777,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
@@ -2328,41 +1787,41 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="18">
+    <row r="17" spans="1:7">
+      <c r="A17" s="4">
         <v>9</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="18">
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="1:7">
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
@@ -2370,10 +1829,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="21">
+      <c r="A20" s="7">
         <v>11</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="s">
@@ -2384,10 +1843,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="21">
+      <c r="A21" s="7">
         <v>12</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
@@ -2398,8 +1857,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="21"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C22" t="s">
@@ -2410,10 +1869,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="21">
+      <c r="A23" s="7">
         <v>13</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C23" t="s">
@@ -2424,10 +1883,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="21">
+      <c r="A24" s="7">
         <v>14</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C24" t="s">
@@ -2438,22 +1897,22 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="21"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="21">
+      <c r="A26" s="7">
         <v>15</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C26" t="s">
@@ -2464,10 +1923,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="21">
+      <c r="A27" s="7">
         <v>16</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C27" t="s">
@@ -2478,8 +1937,8 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="21"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C28" t="s">
@@ -2489,19 +1948,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="21">
+    <row r="29" spans="1:7">
+      <c r="A29" s="7">
         <v>17</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="26" t="s">
+    <row r="30" spans="1:7">
+      <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C30" t="s">
@@ -2512,84 +1971,84 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="21">
+      <c r="A32" s="7">
         <v>37</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="24"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="21"/>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="18">
+      <c r="A33" s="7"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4">
         <v>18</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="18">
+    <row r="36" spans="1:7">
+      <c r="A36" s="4">
         <v>33</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="27" t="s">
+    <row r="37" spans="1:7">
+      <c r="B37" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C37" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="27" t="s">
+    <row r="38" spans="1:7">
+      <c r="B38" s="13" t="s">
         <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="19" t="s">
+    <row r="39" spans="1:7">
+      <c r="B39" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="18">
+    <row r="40" spans="1:7">
+      <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C40" t="s">
@@ -2597,10 +2056,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="21">
+      <c r="A42" s="7">
         <v>30</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C42" t="s">
@@ -2611,70 +2070,70 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="21"/>
-      <c r="B43" s="19" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C43" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="21"/>
-      <c r="G44" s="24"/>
+      <c r="A44" s="7"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="21">
+      <c r="A45" s="7">
         <v>34</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C45" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="24"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="21"/>
-      <c r="B46" s="19" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C46" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="24"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="21"/>
-      <c r="B47" s="19" t="s">
+      <c r="A47" s="7"/>
+      <c r="B47" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C47" t="s">
         <v>107</v>
       </c>
-      <c r="G47" s="24"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="21">
+      <c r="A48" s="7">
         <v>36</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C48" t="s">
         <v>109</v>
       </c>
-      <c r="G48" s="24"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="21">
+      <c r="A50" s="7">
         <v>20</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="14" t="s">
         <v>110</v>
       </c>
       <c r="C50" t="s">
@@ -2685,8 +2144,8 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="21"/>
-      <c r="B51" s="19" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C51" t="s">
@@ -2696,9 +2155,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" ht="13" customHeight="1" spans="1:7">
-      <c r="A52" s="21"/>
-      <c r="B52" s="19" t="s">
+    <row r="52" spans="1:7" ht="13" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C52" t="s">
@@ -2708,41 +2167,41 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="18">
+    <row r="54" spans="1:7">
+      <c r="A54" s="4">
         <v>19</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="19" t="s">
+    <row r="55" spans="1:7">
+      <c r="B55" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C55" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="19" t="s">
+    <row r="56" spans="1:7">
+      <c r="B56" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C56" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" ht="13" customHeight="1" spans="1:1">
-      <c r="A57" s="21"/>
+    <row r="57" spans="1:7" ht="13" customHeight="1">
+      <c r="A57" s="7"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="21">
+      <c r="A58" s="7">
         <v>21</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="14" t="s">
         <v>125</v>
       </c>
       <c r="C58" t="s">
@@ -2753,10 +2212,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="21">
+      <c r="A59" s="7">
         <v>22</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C59" t="s">
@@ -2767,10 +2226,10 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="21">
+      <c r="A60" s="7">
         <v>23</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="14" t="s">
         <v>131</v>
       </c>
       <c r="C60" t="s">
@@ -2781,10 +2240,10 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="21">
+      <c r="A61" s="7">
         <v>24</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="14" t="s">
         <v>134</v>
       </c>
       <c r="C61" t="s">
@@ -2795,10 +2254,10 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="21">
+      <c r="A62" s="7">
         <v>25</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="14" t="s">
         <v>137</v>
       </c>
       <c r="C62" t="s">
@@ -2809,10 +2268,10 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="21">
+      <c r="A63" s="7">
         <v>26</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="14" t="s">
         <v>140</v>
       </c>
       <c r="C63" t="s">
@@ -2822,9 +2281,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="28" t="s">
+    <row r="64" spans="1:7">
+      <c r="A64" s="7"/>
+      <c r="B64" s="14" t="s">
         <v>143</v>
       </c>
       <c r="C64" t="s">
@@ -2832,50 +2291,50 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="18">
+      <c r="A65" s="4">
         <v>27</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C65" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="19" t="s">
+    <row r="66" spans="1:3">
+      <c r="B66" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C66" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="23" t="s">
+    <row r="67" spans="1:3">
+      <c r="B67" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C67" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="23" t="s">
+    <row r="68" spans="1:3">
+      <c r="B68" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C68" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="19" t="s">
+    <row r="69" spans="1:3">
+      <c r="B69" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C69" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="19" t="s">
+    <row r="70" spans="1:3">
+      <c r="B70" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C70" t="s">
@@ -2883,50 +2342,50 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="18">
+      <c r="A71" s="4">
         <v>28</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="13" t="s">
         <v>157</v>
       </c>
       <c r="C71" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="19" t="s">
+    <row r="72" spans="1:3">
+      <c r="B72" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C72" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="23" t="s">
+    <row r="73" spans="1:3">
+      <c r="B73" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C73" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="23" t="s">
+    <row r="74" spans="1:3">
+      <c r="B74" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C74" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="19" t="s">
+    <row r="75" spans="1:3">
+      <c r="B75" s="5" t="s">
         <v>163</v>
       </c>
       <c r="C75" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="19" t="s">
+    <row r="76" spans="1:3">
+      <c r="B76" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C76" t="s">
@@ -2934,96 +2393,96 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="18">
+      <c r="A77" s="4">
         <v>29</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="19" t="s">
+    <row r="78" spans="1:3">
+      <c r="B78" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="19" t="s">
+    <row r="79" spans="1:3">
+      <c r="B79" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="19" t="s">
+    <row r="80" spans="1:3">
+      <c r="B80" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="19" t="s">
+    <row r="81" spans="1:3">
+      <c r="B81" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="19" t="s">
+    <row r="82" spans="1:3">
+      <c r="B82" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="19" t="s">
+    <row r="83" spans="1:3">
+      <c r="B83" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="18">
+      <c r="A84" s="4">
         <v>31</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C84" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="29" t="s">
+    <row r="85" spans="1:3">
+      <c r="B85" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="18">
+      <c r="A86" s="4">
         <v>32</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="13" t="s">
         <v>181</v>
       </c>
       <c r="C86" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
-      <c r="B87" s="19" t="s">
+    <row r="87" spans="1:3">
+      <c r="B87" s="5" t="s">
         <v>183</v>
       </c>
       <c r="C87" t="s">
@@ -3031,26 +2490,26 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="18">
+      <c r="A89" s="4">
         <v>38</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="5" t="s">
         <v>185</v>
       </c>
       <c r="C89" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
-      <c r="B90" s="19" t="s">
+    <row r="90" spans="1:3">
+      <c r="B90" s="5" t="s">
         <v>187</v>
       </c>
       <c r="C90" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="19" t="s">
+    <row r="91" spans="1:3">
+      <c r="B91" s="5" t="s">
         <v>189</v>
       </c>
       <c r="C91" t="s">
@@ -3058,10 +2517,10 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="18">
+      <c r="A92" s="4">
         <v>39</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="5" t="s">
         <v>191</v>
       </c>
       <c r="C92" t="s">
@@ -3069,50 +2528,50 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="18">
+      <c r="A94" s="4">
         <v>40</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="5" t="s">
         <v>193</v>
       </c>
       <c r="C94" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="19" t="s">
+    <row r="95" spans="1:3">
+      <c r="B95" s="5" t="s">
         <v>195</v>
       </c>
       <c r="C95" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="19" t="s">
+    <row r="96" spans="1:3">
+      <c r="B96" s="5" t="s">
         <v>197</v>
       </c>
       <c r="C96" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
-      <c r="B97" s="19" t="s">
+    <row r="97" spans="1:3">
+      <c r="B97" s="5" t="s">
         <v>199</v>
       </c>
       <c r="C97" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="19" t="s">
+    <row r="98" spans="1:3">
+      <c r="B98" s="5" t="s">
         <v>201</v>
       </c>
       <c r="C98" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="19" t="s">
+    <row r="99" spans="1:3">
+      <c r="B99" s="5" t="s">
         <v>203</v>
       </c>
       <c r="C99" t="s">
@@ -3120,10 +2579,10 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="18">
+      <c r="A100" s="4">
         <v>41</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="5" t="s">
         <v>205</v>
       </c>
       <c r="C100" t="s">
@@ -3131,10 +2590,10 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="18">
+      <c r="A101" s="4">
         <v>44</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="5" t="s">
         <v>207</v>
       </c>
       <c r="C101" t="s">
@@ -3142,10 +2601,10 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="18">
+      <c r="A102" s="4">
         <v>45</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C102" t="s">
@@ -3153,58 +2612,58 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="18">
+      <c r="A104" s="4">
         <v>42</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="5" t="s">
         <v>211</v>
       </c>
       <c r="C104" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="19" t="s">
+    <row r="105" spans="1:3">
+      <c r="B105" s="5" t="s">
         <v>213</v>
       </c>
       <c r="C105" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
-      <c r="B106" s="19" t="s">
+    <row r="106" spans="1:3">
+      <c r="B106" s="5" t="s">
         <v>215</v>
       </c>
       <c r="C106" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="19" t="s">
+    <row r="107" spans="1:3">
+      <c r="B107" s="5" t="s">
         <v>217</v>
       </c>
       <c r="C107" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="19" t="s">
+    <row r="108" spans="1:3">
+      <c r="B108" s="5" t="s">
         <v>219</v>
       </c>
       <c r="C108" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="19" t="s">
+    <row r="109" spans="1:3">
+      <c r="B109" s="5" t="s">
         <v>221</v>
       </c>
       <c r="C109" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="19" t="s">
+    <row r="110" spans="1:3">
+      <c r="B110" s="5" t="s">
         <v>223</v>
       </c>
       <c r="C110" t="s">
@@ -3212,47 +2671,100 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="18">
+      <c r="A111" s="4">
         <v>43</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="5" t="s">
         <v>225</v>
       </c>
       <c r="C111" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="19" t="s">
+    <row r="112" spans="1:3">
+      <c r="B112" s="5" t="s">
         <v>227</v>
       </c>
       <c r="C112" t="s">
         <v>228</v>
       </c>
     </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="4">
+        <v>50</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="B114" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C114" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="B115" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C117" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="4">
+        <v>51</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C118" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="6" max="10" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="13.08203125" customWidth="1"/>
+    <col min="6" max="10" width="24.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="14.5" spans="2:10">
+    <row r="3" spans="2:15" ht="14.5">
       <c r="B3" s="2" t="s">
         <v>229</v>
       </c>
@@ -3271,127 +2783,127 @@
       <c r="G3" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1" spans="2:10">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:15" ht="16.5" customHeight="1">
+      <c r="B4" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="28"/>
+      <c r="J4" s="18" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="5" ht="14.5" spans="2:10">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+    <row r="5" spans="2:15" ht="14.5">
+      <c r="B5" s="17"/>
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" ht="14.5" spans="2:10">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="2:15" ht="14.5">
+      <c r="B6" s="17"/>
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" ht="14.5" spans="2:10">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+      <c r="F6" s="19"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="2:15" ht="14.5">
+      <c r="B7" s="17"/>
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" ht="14.5" spans="2:10">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+      <c r="F7" s="19"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="2:15" ht="14.5">
+      <c r="B8" s="17"/>
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" ht="14.5" spans="2:10">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
+      <c r="F8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="2:15" ht="14.5">
+      <c r="B9" s="17"/>
+      <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="12" spans="2:15" s="1" customFormat="1" ht="14.5">
       <c r="B12" s="2" t="s">
         <v>229</v>
       </c>
@@ -3407,137 +2919,137 @@
       <c r="F12" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B13" s="4" t="s">
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B13" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B14" s="17"/>
+      <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
+      <c r="F14" s="17"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B15" s="17"/>
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
+      <c r="F15" s="17"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B16" s="17"/>
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
+      <c r="F16" s="17"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B17" s="17"/>
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3546,36 +3058,33 @@
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L13:O17"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K17"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="H4:I9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="F4:F9"/>
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="G4:G9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="L13:O17"/>
-    <mergeCell ref="H4:I9"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>